--- a/models/metrics.xlsx
+++ b/models/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arsip IPB\Satria Data 2023\SEC\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF314FC-5356-40A2-AB61-0B4F9F9B46D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364EC2A-D0AB-4341-A7A5-16EBA8EC5CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8C3B845-F5E8-4957-92FB-736639D06E7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Model</t>
   </si>
@@ -75,18 +75,12 @@
     <t>Gradient Boosting Classifier</t>
   </si>
   <si>
-    <t>Extra Trees Classifier</t>
-  </si>
-  <si>
     <t>Ada Boost Classifier</t>
   </si>
   <si>
     <t>K Neighbors Classifier</t>
   </si>
   <si>
-    <t>Quadratic Discriminant Analysis</t>
-  </si>
-  <si>
     <t>Naive Bayes</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
     <t>Decision Tree Classifier</t>
   </si>
   <si>
-    <t>SVM - Linear Kernel</t>
-  </si>
-  <si>
-    <t>Ridge Classifier</t>
-  </si>
-  <si>
     <t>Acc</t>
   </si>
   <si>
@@ -117,16 +105,16 @@
     <t>XGBoost</t>
   </si>
   <si>
-    <t>Light GBM</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Rata-rata</t>
   </si>
   <si>
     <t>Std.</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>TT (Sec)</t>
   </si>
 </sst>
 </file>
@@ -134,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +141,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,19 +171,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -191,9 +204,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F40CF06-18D3-48F0-B30E-3E8C95F7BBC3}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -520,439 +549,367 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
+      <c r="I1" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.93989999999999996</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.88529999999999998</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="I2" s="11">
+        <v>1.1240000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="11">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.98729999999999996</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.9345</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.94940000000000002</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.88490000000000002</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.77600000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.872</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.873</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.69</v>
+      <c r="B4" s="11">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.93730000000000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.94450000000000001</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.8821</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.175</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.70699999999999996</v>
+      <c r="B5" s="11">
+        <v>0.93459999999999999</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.2529999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.94</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.73399999999999999</v>
+      <c r="B6" s="11">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.93049999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.9214</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.85009999999999997</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1.0680000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.87050000000000005</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.90369999999999995</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.79949999999999999</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="I7" s="11">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.8972</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.79420000000000002</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.69599999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="11">
+        <v>0.90310000000000001</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.80589999999999995</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.80689999999999995</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B10" s="11">
+        <v>0.88980000000000004</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.90110000000000001</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F11" s="11">
         <v>0.90100000000000002</v>
       </c>
-      <c r="E8" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.872</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.874</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.873</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.872</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.746</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.872</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="I11" s="3">
-        <v>8.1739999999999995</v>
+      <c r="G11" s="11">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.008</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.627</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.624</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.68700000000000006</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.64500000000000002</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,257 +922,257 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="J1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.98299999999999998</v>
+      <c r="B3" s="8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.98499999999999999</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="L3" s="1">
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.99009999999999998</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.98960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.98699999999999999</v>
       </c>
-      <c r="M3" s="1">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.98199999999999998</v>
+      <c r="D4" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.98699999999999999</v>
       </c>
       <c r="J4" s="1">
         <v>2</v>
       </c>
       <c r="K4" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.9123</v>
       </c>
       <c r="L4" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="M4" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.91559999999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.97840000000000005</v>
       </c>
       <c r="O4" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="P4" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.98260000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.98299999999999998</v>
+      <c r="B5" s="4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.98699999999999999</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>0.90900000000000003</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="L5" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="M5" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="O5" s="1">
-        <v>0.90600000000000003</v>
+        <v>0.95130000000000003</v>
       </c>
       <c r="P5" s="1">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C6" s="4">
         <v>0.98699999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.98499999999999999</v>
+      <c r="D6" s="8">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.98699999999999999</v>
       </c>
       <c r="J6" s="1">
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="L6" s="1">
-        <v>0.97899999999999998</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>0.98099999999999998</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="O6" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="P6" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.98150000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1223,22 +1180,22 @@
         <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.95130000000000003</v>
       </c>
       <c r="L7" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>0.93200000000000005</v>
+        <v>0.93510000000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.98580000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.92900000000000005</v>
+        <v>0.95130000000000003</v>
       </c>
       <c r="P7" s="1">
-        <v>0.98499999999999999</v>
+        <v>0.98429999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1246,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="K8" s="1">
-        <v>0.95099999999999996</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="L8" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>0.94799999999999995</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.9819</v>
       </c>
       <c r="O8" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="P8" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.98150000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1269,22 +1226,22 @@
         <v>7</v>
       </c>
       <c r="K9" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.93810000000000004</v>
       </c>
       <c r="L9" s="1">
-        <v>0.97699999999999998</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="M9" s="1">
-        <v>0.91900000000000004</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="O9" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.95109999999999995</v>
       </c>
       <c r="P9" s="1">
-        <v>0.98099999999999998</v>
+        <v>0.99029999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1292,22 +1249,22 @@
         <v>8</v>
       </c>
       <c r="K10" s="1">
-        <v>0.92500000000000004</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>0.99</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="O10" s="1">
-        <v>0.93799999999999994</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="P10" s="1">
-        <v>0.98699999999999999</v>
+        <v>0.98760000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
@@ -1315,22 +1272,22 @@
         <v>9</v>
       </c>
       <c r="K11" s="1">
-        <v>0.95099999999999996</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="L11" s="1">
-        <v>0.99099999999999999</v>
+        <v>0.98770000000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>0.94799999999999995</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>0.99</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="O11" s="1">
-        <v>0.94499999999999995</v>
+        <v>0.93159999999999998</v>
       </c>
       <c r="P11" s="1">
-        <v>0.98899999999999999</v>
+        <v>0.98570000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1338,81 +1295,94 @@
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <v>0.92800000000000005</v>
+        <v>0.96089999999999998</v>
       </c>
       <c r="L12" s="1">
-        <v>0.98399999999999999</v>
+        <v>0.98680000000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>0.98199999999999998</v>
+        <v>0.98570000000000002</v>
       </c>
       <c r="O12" s="1">
-        <v>0.93500000000000005</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="P12" s="1">
-        <v>0.98299999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K13" s="5">
-        <v>0.93200000000000005</v>
+        <f>AVERAGE(K3:K12)</f>
+        <v>0.9372400000000003</v>
       </c>
       <c r="L13" s="5">
-        <v>0.98599999999999999</v>
+        <f t="shared" ref="L13:P13" si="0">AVERAGE(L3:L12)</f>
+        <v>0.98585999999999996</v>
       </c>
       <c r="M13" s="5">
-        <v>0.93600000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.9323499999999999</v>
       </c>
       <c r="N13" s="5">
-        <v>0.98499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98593999999999993</v>
       </c>
       <c r="O13" s="5">
-        <v>0.93200000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.94081999999999988</v>
       </c>
       <c r="P13" s="5">
-        <v>0.98499999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.98627999999999982</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="N14" s="1">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <f>_xlfn.STDEV.S(K3:K12)</f>
+        <v>1.4841173957758341E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14:P14" si="1">_xlfn.STDEV.S(L3:L12)</f>
+        <v>3.3059542243251629E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4853301166931078E-2</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="1"/>
+        <v>4.8477256981438697E-3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.4504696557398992E-2</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="1"/>
+        <v>3.7231408485011303E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>